--- a/src/test/resources/Data_Test.xlsx
+++ b/src/test/resources/Data_Test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA3_TestAutomation\src\test\java\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA3_TestAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206FFA73-583C-47F0-A86C-1F76E14C45C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C36D3EC-57BC-487D-88D1-E8071A5371DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8010" activeTab="4" xr2:uid="{77DEAFC2-7D4F-4F22-A898-29ED0DE5A4F5}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
   <si>
     <t>username</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>Cảm ơn bạn đã đặt hàng</t>
+  </si>
+  <si>
+    <t>ngthiquyen@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1033,12 +1036,12 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.36328125" bestFit="1" customWidth="1"/>
@@ -1084,7 +1087,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>

--- a/src/test/resources/Data_Test.xlsx
+++ b/src/test/resources/Data_Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA3_TestAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C36D3EC-57BC-487D-88D1-E8071A5371DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BA078A-2325-4547-B0EE-B59E065E41EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8010" activeTab="4" xr2:uid="{77DEAFC2-7D4F-4F22-A898-29ED0DE5A4F5}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Search" sheetId="2" r:id="rId2"/>
     <sheet name="ChangePassword" sheetId="3" r:id="rId3"/>
     <sheet name="Cart" sheetId="4" r:id="rId4"/>
-    <sheet name="Order" sheetId="5" r:id="rId5"/>
+    <sheet name="Order" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="77">
   <si>
     <t>username</t>
   </si>
@@ -222,6 +222,45 @@
   </si>
   <si>
     <t>ngthiquyen@gmail.com</t>
+  </si>
+  <si>
+    <t>huynhmy18@gmail.com</t>
+  </si>
+  <si>
+    <t>0912345679</t>
+  </si>
+  <si>
+    <t>Vui lòng nhập họ tên</t>
+  </si>
+  <si>
+    <t>0912345680</t>
+  </si>
+  <si>
+    <t>Vui lòng nhập email</t>
+  </si>
+  <si>
+    <t>Vui lòng nhập số điện thoại</t>
+  </si>
+  <si>
+    <t>Số điện thoại không hợp lệ</t>
+  </si>
+  <si>
+    <t>01a4235677</t>
+  </si>
+  <si>
+    <t>014235678</t>
+  </si>
+  <si>
+    <t>Vui lòng chọn Tỉnh</t>
+  </si>
+  <si>
+    <t>Vui lòng chọn Huyện</t>
+  </si>
+  <si>
+    <t>Vui lòng chọn Xã</t>
+  </si>
+  <si>
+    <t>Vui lòng chọn hình thức thanh toán</t>
   </si>
 </sst>
 </file>
@@ -294,7 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -308,9 +347,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1032,25 +1068,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15F58B6-B210-430B-A176-6C2B8CF3B463}">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3F4E4E-D961-456E-9905-E0FDA71649CC}">
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
@@ -1101,7 +1137,7 @@
       <c r="E2" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>57</v>
       </c>
       <c r="G2" t="s">
@@ -1113,18 +1149,324 @@
       <c r="I2" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F3" s="7"/>
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1234235676</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{69194C6A-AA66-410E-8F43-15FF5A2975F5}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{FB1E363A-3E64-497F-8B93-7C6828695197}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{26D32FF6-9A45-43C9-B630-B81F24799DC7}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{81AC409C-B65E-4084-A129-3686A7290CA3}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{A23C3169-2EB1-4905-8663-940436E574BC}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{A043D76C-1E84-41FB-A89B-F85F201F05B7}"/>
+    <hyperlink ref="A8" r:id="rId6" xr:uid="{6FD939B3-402F-4A78-A790-93CB031793F7}"/>
+    <hyperlink ref="A9" r:id="rId7" xr:uid="{808C5C12-A401-45D4-9C4E-9A2D0F14FDBE}"/>
+    <hyperlink ref="A10" r:id="rId8" xr:uid="{2508C79C-E53B-405D-B24D-EEED79CD1334}"/>
+    <hyperlink ref="A11" r:id="rId9" xr:uid="{9B12BD1D-987E-4884-AA79-3C7D3FC1B008}"/>
+    <hyperlink ref="A12" r:id="rId10" xr:uid="{F747206C-C6DD-4A32-AE5D-3A107AB74839}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/test/resources/Data_Test.xlsx
+++ b/src/test/resources/Data_Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA3_TestAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BA078A-2325-4547-B0EE-B59E065E41EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7295838D-1F3C-41AF-A3C3-EC8E05A32217}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8010" activeTab="4" xr2:uid="{77DEAFC2-7D4F-4F22-A898-29ED0DE5A4F5}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="85">
   <si>
     <t>username</t>
   </si>
@@ -251,16 +251,40 @@
     <t>014235678</t>
   </si>
   <si>
-    <t>Vui lòng chọn Tỉnh</t>
-  </si>
-  <si>
     <t>Vui lòng chọn Huyện</t>
   </si>
   <si>
     <t>Vui lòng chọn Xã</t>
   </si>
   <si>
-    <t>Vui lòng chọn hình thức thanh toán</t>
+    <t>Mã giảm giá</t>
+  </si>
+  <si>
+    <t>SALE</t>
+  </si>
+  <si>
+    <t>Mã khuyến mãi không hợp lệ</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t>Thị xã Sơn Tây</t>
+  </si>
+  <si>
+    <t>Phường Phú Thịnh</t>
+  </si>
+  <si>
+    <t>Ship Nhanh - J&amp;T Express</t>
+  </si>
+  <si>
+    <t>Bạn chưa chọn tỉnh thành</t>
+  </si>
+  <si>
+    <t>0123423@676</t>
+  </si>
+  <si>
+    <t>Bạn cần chọn phương thức thanh toán</t>
   </si>
 </sst>
 </file>
@@ -333,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -353,6 +377,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1069,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3F4E4E-D961-456E-9905-E0FDA71649CC}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1085,11 +1110,11 @@
     <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="17.453125" customWidth="1"/>
+    <col min="11" max="11" width="30.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>46</v>
       </c>
@@ -1118,10 +1143,13 @@
         <v>53</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
@@ -1149,11 +1177,11 @@
       <c r="I2" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1178,11 +1206,11 @@
       <c r="I3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -1207,11 +1235,11 @@
       <c r="I4" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
@@ -1237,19 +1265,19 @@
       <c r="I5" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="K5" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6">
-        <v>1234235676</v>
+      <c r="C6" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="D6" t="s">
         <v>55</v>
@@ -1269,11 +1297,11 @@
       <c r="I6" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="K6" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>64</v>
       </c>
@@ -1301,11 +1329,11 @@
       <c r="I7" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>64</v>
       </c>
@@ -1333,11 +1361,11 @@
       <c r="I8" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="K8" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>64</v>
       </c>
@@ -1362,11 +1390,11 @@
       <c r="I9" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>64</v>
       </c>
@@ -1391,11 +1419,11 @@
       <c r="I10" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K10" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>64</v>
       </c>
@@ -1421,11 +1449,11 @@
       <c r="I11" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K11" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>64</v>
       </c>
@@ -1450,8 +1478,43 @@
       <c r="I12" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="K12" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" t="s">
         <v>76</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1466,6 +1529,8 @@
     <hyperlink ref="A10" r:id="rId8" xr:uid="{2508C79C-E53B-405D-B24D-EEED79CD1334}"/>
     <hyperlink ref="A11" r:id="rId9" xr:uid="{9B12BD1D-987E-4884-AA79-3C7D3FC1B008}"/>
     <hyperlink ref="A12" r:id="rId10" xr:uid="{F747206C-C6DD-4A32-AE5D-3A107AB74839}"/>
+    <hyperlink ref="A13" r:id="rId11" xr:uid="{46EC86B0-3E51-4C59-A4EF-515E821C56EF}"/>
+    <hyperlink ref="C6" r:id="rId12" xr:uid="{65002A65-D9DD-49EC-B7DB-8D0EEB6058DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/Data_Test.xlsx
+++ b/src/test/resources/Data_Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA3_TestAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7295838D-1F3C-41AF-A3C3-EC8E05A32217}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4809E567-7DB5-48AE-AB98-FC5E09531CAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8010" activeTab="4" xr2:uid="{77DEAFC2-7D4F-4F22-A898-29ED0DE5A4F5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8010" xr2:uid="{77DEAFC2-7D4F-4F22-A898-29ED0DE5A4F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="86">
   <si>
     <t>username</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>Bạn cần chọn phương thức thanh toán</t>
+  </si>
+  <si>
+    <t>Please fill out this field.</t>
   </si>
 </sst>
 </file>
@@ -695,15 +698,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685662FB-3C2A-4A65-BFFF-9C0B212152F3}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -744,7 +747,7 @@
         <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -752,7 +755,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1096,7 +1099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3F4E4E-D961-456E-9905-E0FDA71649CC}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/Data_Test.xlsx
+++ b/src/test/resources/Data_Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA3_TestAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4809E567-7DB5-48AE-AB98-FC5E09531CAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FCF203-B757-44F4-A428-13C4B4F78B43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8010" xr2:uid="{77DEAFC2-7D4F-4F22-A898-29ED0DE5A4F5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8010" activeTab="2" xr2:uid="{77DEAFC2-7D4F-4F22-A898-29ED0DE5A4F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -121,10 +121,6 @@
     <t>ad</t>
   </si>
   <si>
-    <t>Mật khẩu mới dài từ 6 đến 50 ký tự
-Xác nhận mật khẩu không khớp</t>
-  </si>
-  <si>
     <t>as</t>
   </si>
   <si>
@@ -288,6 +284,9 @@
   </si>
   <si>
     <t>Please fill out this field.</t>
+  </si>
+  <si>
+    <t>Mật khẩu mới dài từ 6 đến 50 ký tự | Xác nhận mật khẩu không khớp</t>
   </si>
 </sst>
 </file>
@@ -367,9 +366,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -381,6 +377,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -698,7 +695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685662FB-3C2A-4A65-BFFF-9C0B212152F3}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -747,7 +744,7 @@
         <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -755,7 +752,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -860,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A4ACB5-A324-447F-B65B-C86042D78515}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -869,7 +866,7 @@
     <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -922,7 +919,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -933,7 +930,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -944,10 +941,10 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -957,8 +954,8 @@
       <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>30</v>
+      <c r="D7" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -966,10 +963,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -986,7 +983,7 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1014,36 +1011,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
       </c>
       <c r="D1" t="s">
         <v>16</v>
       </c>
       <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
         <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
         <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2">
         <v>235000</v>
@@ -1054,10 +1051,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -1072,21 +1069,21 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
         <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
         <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1118,406 +1115,406 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="J1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
         <v>54</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>55</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" t="s">
         <v>57</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" t="s">
         <v>58</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="I2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="D4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="5"/>
       <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
         <v>55</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" t="s">
         <v>57</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" t="s">
         <v>58</v>
       </c>
-      <c r="H5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>69</v>
+      <c r="K5" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>83</v>
+      <c r="C6" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
         <v>55</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" t="s">
         <v>57</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" t="s">
         <v>58</v>
       </c>
-      <c r="H6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>70</v>
+      <c r="K6" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>71</v>
+      <c r="C7" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
         <v>55</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="H7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>70</v>
+      <c r="K7" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>72</v>
+      <c r="C8" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
         <v>55</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" t="s">
         <v>57</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" t="s">
         <v>58</v>
       </c>
-      <c r="H8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>70</v>
+      <c r="K8" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>67</v>
+      <c r="C9" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" t="s">
         <v>57</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" t="s">
         <v>58</v>
       </c>
-      <c r="H9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>82</v>
+      <c r="K9" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>67</v>
+      <c r="C10" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
         <v>57</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" t="s">
         <v>58</v>
       </c>
-      <c r="H10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>73</v>
+      <c r="K10" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>67</v>
+      <c r="C11" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
         <v>55</v>
       </c>
-      <c r="E11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="6"/>
       <c r="G11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" t="s">
         <v>58</v>
       </c>
-      <c r="H11" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>74</v>
+      <c r="K11" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>67</v>
+      <c r="C12" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
         <v>55</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" t="s">
         <v>57</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>58</v>
       </c>
-      <c r="I12" t="s">
-        <v>59</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>84</v>
+      <c r="K12" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>54</v>
+      <c r="C13" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
         <v>78</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" t="s">
         <v>80</v>
       </c>
-      <c r="G13" t="s">
-        <v>81</v>
-      </c>
       <c r="H13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Data_Test.xlsx
+++ b/src/test/resources/Data_Test.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA3_TestAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FCF203-B757-44F4-A428-13C4B4F78B43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA5E0B7-DF24-422C-9C64-D1B2524FDA0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8010" activeTab="2" xr2:uid="{77DEAFC2-7D4F-4F22-A898-29ED0DE5A4F5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8010" firstSheet="2" activeTab="3" xr2:uid="{77DEAFC2-7D4F-4F22-A898-29ED0DE5A4F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Search" sheetId="2" r:id="rId2"/>
     <sheet name="ChangePassword" sheetId="3" r:id="rId3"/>
-    <sheet name="Cart" sheetId="4" r:id="rId4"/>
-    <sheet name="Order" sheetId="6" r:id="rId5"/>
+    <sheet name="Order" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="75">
   <si>
     <t>username</t>
   </si>
@@ -127,45 +126,6 @@
     <t>Đổi password thành công</t>
   </si>
   <si>
-    <t>Hành động</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tên sản phẩm </t>
-  </si>
-  <si>
-    <t>Số lượng</t>
-  </si>
-  <si>
-    <t>Thêm</t>
-  </si>
-  <si>
-    <t>Set quà tặng nến thơm Dịu Nồng</t>
-  </si>
-  <si>
-    <t>Thêm vào giỏ hàng thành công</t>
-  </si>
-  <si>
-    <t>Thay đổi số lượng</t>
-  </si>
-  <si>
-    <t>Xóa sản phẩm</t>
-  </si>
-  <si>
-    <t>Sản phẩm đã bị xóa khỏi giỏ hàng</t>
-  </si>
-  <si>
-    <t>Kiểm tra giỏ hàng trống</t>
-  </si>
-  <si>
-    <t>Không có sản phẩm nào trong giỏ hàng của bạn</t>
-  </si>
-  <si>
-    <t>Giá sản phẩm</t>
-  </si>
-  <si>
-    <t>Tổng tiền mong muốn</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -287,6 +247,12 @@
   </si>
   <si>
     <t>Mật khẩu mới dài từ 6 đến 50 ký tự | Xác nhận mật khẩu không khớp</t>
+  </si>
+  <si>
+    <t>NGTHIQUYEN102@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -693,15 +659,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685662FB-3C2A-4A65-BFFF-9C0B212152F3}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58.1796875" bestFit="1" customWidth="1"/>
   </cols>
@@ -744,7 +710,7 @@
         <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -752,17 +718,28 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -770,8 +747,9 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{D6C9F8FD-AFAE-4EEA-8434-A848E5D093D1}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{6EA670BB-F7F3-4C2C-ADB4-1CCF1A46CC06}"/>
-    <hyperlink ref="A6" r:id="rId3" xr:uid="{9F87F6C6-714E-460A-BFBF-52C6E4342638}"/>
+    <hyperlink ref="A7" r:id="rId3" xr:uid="{9F87F6C6-714E-460A-BFBF-52C6E4342638}"/>
     <hyperlink ref="A5" r:id="rId4" xr:uid="{10F70CA4-A21E-4065-9FD4-8E142A27B626}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{BC50D02F-5A95-409B-9556-8281DA57C556}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -779,7 +757,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9002D27-2518-4DA5-9F4E-FF207E623BAE}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -805,48 +783,56 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{F2F380FA-75AC-4408-B118-385B3BC4C5AE}"/>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{F2F380FA-75AC-4408-B118-385B3BC4C5AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -857,7 +843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A4ACB5-A324-447F-B65B-C86042D78515}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -919,7 +905,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -930,7 +916,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -941,7 +927,7 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -955,7 +941,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -993,111 +979,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B40F5AF-9B89-4615-9943-7E4D3566BFA5}">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2">
-        <v>235000</v>
-      </c>
-      <c r="F2">
-        <v>235000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>235000</v>
-      </c>
-      <c r="F3">
-        <f>235000*3</f>
-        <v>705000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3F4E4E-D961-456E-9905-E0FDA71649CC}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1116,34 +1002,34 @@
   <sheetData>
     <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>16</v>
@@ -1151,63 +1037,63 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -1215,306 +1101,306 @@
         <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="E4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="G6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="G7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="G8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="I11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="J13" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Data_Test.xlsx
+++ b/src/test/resources/Data_Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA3_TestAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA5E0B7-DF24-422C-9C64-D1B2524FDA0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A259A43-31DA-4E58-A104-FA03B5680A7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8010" firstSheet="2" activeTab="3" xr2:uid="{77DEAFC2-7D4F-4F22-A898-29ED0DE5A4F5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8010" firstSheet="1" activeTab="3" xr2:uid="{77DEAFC2-7D4F-4F22-A898-29ED0DE5A4F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -843,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A4ACB5-A324-447F-B65B-C86042D78515}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -982,15 +982,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3F4E4E-D961-456E-9905-E0FDA71649CC}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
